--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -103,15 +103,15 @@
     <t>relief</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -124,13 +124,13 @@
     <t>community</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>care</t>
@@ -1175,13 +1175,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.7324561403508771</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="M21">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="N21">
         <v>0.9399999999999999</v>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1201,13 +1201,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L22">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>0.9399999999999999</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1227,25 +1227,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.7173913043478261</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1357,25 +1357,25 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.6299694189602446</v>
+        <v>0.6289473684210526</v>
       </c>
       <c r="L28">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="M28">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1383,25 +1383,25 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.6289473684210526</v>
+        <v>0.6175438596491228</v>
       </c>
       <c r="L29">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="M29">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1409,25 +1409,25 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.6175438596491228</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L30">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="M30">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="10:17">
